--- a/program_directory/interpreterAccounting/健康元：2014年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/健康元：2014年年度报告.xlsx
@@ -9,7 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="无形资产情况" sheetId="8" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
+    <sheet name="合并资产负债表" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2026,7 +2026,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelCol="3"/>
